--- a/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
+++ b/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q996"/>
+  <dimension ref="A1:Q1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52778,7 +52778,9 @@
       <c r="P987" t="n">
         <v>0</v>
       </c>
-      <c r="Q987" t="inlineStr"/>
+      <c r="Q987" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="988">
       <c r="A988" s="2" t="n">
@@ -52829,7 +52831,9 @@
       <c r="P988" t="n">
         <v>0</v>
       </c>
-      <c r="Q988" t="inlineStr"/>
+      <c r="Q988" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="989">
       <c r="A989" s="2" t="n">
@@ -52880,7 +52884,9 @@
       <c r="P989" t="n">
         <v>0</v>
       </c>
-      <c r="Q989" t="inlineStr"/>
+      <c r="Q989" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="990">
       <c r="A990" s="2" t="n">
@@ -52931,7 +52937,9 @@
       <c r="P990" t="n">
         <v>0</v>
       </c>
-      <c r="Q990" t="inlineStr"/>
+      <c r="Q990" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="991">
       <c r="A991" s="2" t="n">
@@ -52982,7 +52990,9 @@
       <c r="P991" t="n">
         <v>0</v>
       </c>
-      <c r="Q991" t="inlineStr"/>
+      <c r="Q991" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="992">
       <c r="A992" s="2" t="n">
@@ -53033,7 +53043,9 @@
       <c r="P992" t="n">
         <v>0</v>
       </c>
-      <c r="Q992" t="inlineStr"/>
+      <c r="Q992" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
@@ -53084,7 +53096,9 @@
       <c r="P993" t="n">
         <v>2</v>
       </c>
-      <c r="Q993" t="inlineStr"/>
+      <c r="Q993" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="994">
       <c r="A994" s="2" t="n">
@@ -53135,7 +53149,9 @@
       <c r="P994" t="n">
         <v>0</v>
       </c>
-      <c r="Q994" t="inlineStr"/>
+      <c r="Q994" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="995">
       <c r="A995" s="2" t="n">
@@ -53186,7 +53202,9 @@
       <c r="P995" t="n">
         <v>0</v>
       </c>
-      <c r="Q995" t="inlineStr"/>
+      <c r="Q995" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="996">
       <c r="A996" s="2" t="n">
@@ -53237,7 +53255,315 @@
       <c r="P996" t="n">
         <v>0</v>
       </c>
-      <c r="Q996" t="inlineStr"/>
+      <c r="Q996" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="2" t="n">
+        <v>45681.42708333334</v>
+      </c>
+      <c r="B997" t="n">
+        <v>62</v>
+      </c>
+      <c r="C997" t="n">
+        <v>62</v>
+      </c>
+      <c r="D997" t="n">
+        <v>62</v>
+      </c>
+      <c r="E997" t="n">
+        <v>62</v>
+      </c>
+      <c r="F997" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G997" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H997" t="n">
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>24</v>
+      </c>
+      <c r="J997" t="n">
+        <v>10</v>
+      </c>
+      <c r="K997" t="n">
+        <v>15</v>
+      </c>
+      <c r="L997" t="n">
+        <v>0</v>
+      </c>
+      <c r="M997" t="n">
+        <v>4</v>
+      </c>
+      <c r="N997" t="n">
+        <v>0</v>
+      </c>
+      <c r="O997" t="n">
+        <v>0</v>
+      </c>
+      <c r="P997" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="2" t="n">
+        <v>45681.46875</v>
+      </c>
+      <c r="B998" t="n">
+        <v>62.04999923706055</v>
+      </c>
+      <c r="C998" t="n">
+        <v>62.04999923706055</v>
+      </c>
+      <c r="D998" t="n">
+        <v>61.65000152587891</v>
+      </c>
+      <c r="E998" t="n">
+        <v>62.04999923706055</v>
+      </c>
+      <c r="F998" t="n">
+        <v>17500</v>
+      </c>
+      <c r="G998" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H998" t="n">
+        <v>1</v>
+      </c>
+      <c r="I998" t="n">
+        <v>24</v>
+      </c>
+      <c r="J998" t="n">
+        <v>11</v>
+      </c>
+      <c r="K998" t="n">
+        <v>15</v>
+      </c>
+      <c r="L998" t="n">
+        <v>0</v>
+      </c>
+      <c r="M998" t="n">
+        <v>4</v>
+      </c>
+      <c r="N998" t="n">
+        <v>0</v>
+      </c>
+      <c r="O998" t="n">
+        <v>0</v>
+      </c>
+      <c r="P998" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="2" t="n">
+        <v>45681.51041666666</v>
+      </c>
+      <c r="B999" t="n">
+        <v>61.20000076293945</v>
+      </c>
+      <c r="C999" t="n">
+        <v>61.20000076293945</v>
+      </c>
+      <c r="D999" t="n">
+        <v>61.15000152587891</v>
+      </c>
+      <c r="E999" t="n">
+        <v>61.15000152587891</v>
+      </c>
+      <c r="F999" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G999" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H999" t="n">
+        <v>1</v>
+      </c>
+      <c r="I999" t="n">
+        <v>24</v>
+      </c>
+      <c r="J999" t="n">
+        <v>12</v>
+      </c>
+      <c r="K999" t="n">
+        <v>15</v>
+      </c>
+      <c r="L999" t="n">
+        <v>0</v>
+      </c>
+      <c r="M999" t="n">
+        <v>4</v>
+      </c>
+      <c r="N999" t="n">
+        <v>0</v>
+      </c>
+      <c r="O999" t="n">
+        <v>0</v>
+      </c>
+      <c r="P999" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2" t="n">
+        <v>45681.55208333334</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>60.29999923706055</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>60.29999923706055</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>60.29999923706055</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>60.29999923706055</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2" t="n">
+        <v>45681.59375</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>60.90000152587891</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>60.90000152587891</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>60.90000152587891</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>60.90000152587891</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2" t="n">
+        <v>45681.63541666666</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>60</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>60</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>58.90000152587891</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1002" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
+++ b/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1002"/>
+  <dimension ref="A1:Q1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53308,7 +53308,9 @@
       <c r="P997" t="n">
         <v>0</v>
       </c>
-      <c r="Q997" t="inlineStr"/>
+      <c r="Q997" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
@@ -53359,7 +53361,9 @@
       <c r="P998" t="n">
         <v>0</v>
       </c>
-      <c r="Q998" t="inlineStr"/>
+      <c r="Q998" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
@@ -53410,7 +53414,9 @@
       <c r="P999" t="n">
         <v>0</v>
       </c>
-      <c r="Q999" t="inlineStr"/>
+      <c r="Q999" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
@@ -53461,7 +53467,9 @@
       <c r="P1000" t="n">
         <v>0</v>
       </c>
-      <c r="Q1000" t="inlineStr"/>
+      <c r="Q1000" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
@@ -53512,7 +53520,9 @@
       <c r="P1001" t="n">
         <v>0</v>
       </c>
-      <c r="Q1001" t="inlineStr"/>
+      <c r="Q1001" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
@@ -53563,7 +53573,60 @@
       <c r="P1002" t="n">
         <v>0</v>
       </c>
-      <c r="Q1002" t="inlineStr"/>
+      <c r="Q1002" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2" t="n">
+        <v>45684.38541666666</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>64</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>64</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1003" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
+++ b/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1003"/>
+  <dimension ref="A1:Q1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53626,7 +53626,162 @@
       <c r="P1003" t="n">
         <v>0</v>
       </c>
-      <c r="Q1003" t="inlineStr"/>
+      <c r="Q1003" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2" t="n">
+        <v>45686.59375</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>58</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>60</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>58</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2" t="n">
+        <v>45686.63541666666</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>60</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>60</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>59.34999847412109</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>59.34999847412109</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2" t="n">
+        <v>45687.59375</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>58</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>58</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1006" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
+++ b/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1006"/>
+  <dimension ref="A1:Q1009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53679,7 +53679,9 @@
       <c r="P1004" t="n">
         <v>0</v>
       </c>
-      <c r="Q1004" t="inlineStr"/>
+      <c r="Q1004" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
@@ -53730,7 +53732,9 @@
       <c r="P1005" t="n">
         <v>0</v>
       </c>
-      <c r="Q1005" t="inlineStr"/>
+      <c r="Q1005" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
@@ -53781,7 +53785,162 @@
       <c r="P1006" t="n">
         <v>0</v>
       </c>
-      <c r="Q1006" t="inlineStr"/>
+      <c r="Q1006" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2" t="n">
+        <v>45688.38541666666</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>64</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>64</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2" t="n">
+        <v>45688.42708333334</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>60</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>60</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>59.84999847412109</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>59.84999847412109</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="n">
+        <v>45688.55208333334</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>58.09999847412109</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>58.09999847412109</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>58.09999847412109</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>58.09999847412109</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1009" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
+++ b/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1009"/>
+  <dimension ref="A1:Q1014"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53671,7 +53671,7 @@
         <v>5</v>
       </c>
       <c r="N1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1004" t="n">
         <v>0</v>
@@ -53838,7 +53838,9 @@
       <c r="P1007" t="n">
         <v>0</v>
       </c>
-      <c r="Q1007" t="inlineStr"/>
+      <c r="Q1007" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
@@ -53889,7 +53891,9 @@
       <c r="P1008" t="n">
         <v>0</v>
       </c>
-      <c r="Q1008" t="inlineStr"/>
+      <c r="Q1008" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
@@ -53940,7 +53944,264 @@
       <c r="P1009" t="n">
         <v>0</v>
       </c>
-      <c r="Q1009" t="inlineStr"/>
+      <c r="Q1009" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="n">
+        <v>45692.59375</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>60.20000076293945</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>60.20000076293945</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>58.09999847412109</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>58.34999847412109</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2" t="n">
+        <v>45692.63541666666</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>59.45000076293945</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>59.54999923706055</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>59.45000076293945</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>59.54999923706055</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2" t="n">
+        <v>45693.38541666666</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>64</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>64</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2" t="n">
+        <v>45693.51041666666</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2" t="n">
+        <v>45693.55208333334</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1014" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
+++ b/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1014"/>
+  <dimension ref="A1:Q1024"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53777,7 +53777,7 @@
         <v>5</v>
       </c>
       <c r="N1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1006" t="n">
         <v>0</v>
@@ -53830,7 +53830,7 @@
         <v>5</v>
       </c>
       <c r="N1007" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1007" t="n">
         <v>0</v>
@@ -53997,7 +53997,9 @@
       <c r="P1010" t="n">
         <v>0</v>
       </c>
-      <c r="Q1010" t="inlineStr"/>
+      <c r="Q1010" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
@@ -54048,7 +54050,9 @@
       <c r="P1011" t="n">
         <v>0</v>
       </c>
-      <c r="Q1011" t="inlineStr"/>
+      <c r="Q1011" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
@@ -54091,7 +54095,7 @@
         <v>6</v>
       </c>
       <c r="N1012" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1012" t="n">
         <v>0</v>
@@ -54099,7 +54103,9 @@
       <c r="P1012" t="n">
         <v>0</v>
       </c>
-      <c r="Q1012" t="inlineStr"/>
+      <c r="Q1012" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
@@ -54150,7 +54156,9 @@
       <c r="P1013" t="n">
         <v>0</v>
       </c>
-      <c r="Q1013" t="inlineStr"/>
+      <c r="Q1013" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
@@ -54201,7 +54209,519 @@
       <c r="P1014" t="n">
         <v>0</v>
       </c>
-      <c r="Q1014" t="inlineStr"/>
+      <c r="Q1014" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2" t="n">
+        <v>45694.38541666666</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>63.54999923706055</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>63.54999923706055</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>61.59999847412109</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>61.59999847412109</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1015" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="2" t="n">
+        <v>45694.42708333334</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>60</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>60</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2" t="n">
+        <v>45694.46875</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>59.59999847412109</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>59.59999847412109</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>59.59999847412109</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>59.59999847412109</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2" t="n">
+        <v>45694.59375</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>62.45000076293945</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>59.59999847412109</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2" t="n">
+        <v>45695.38541666666</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>58.25</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>62.29999923706055</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>58.09999847412109</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>59.75</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2" t="n">
+        <v>45695.42708333334</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="n">
+        <v>45695.51041666666</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>58.15000152587891</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>58.15000152587891</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>58.15000152587891</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>58.15000152587891</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>45695.55208333334</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>58</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>61</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>58</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>61</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>32500</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>45695.59375</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>58.29999923706055</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>59.95000076293945</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>58</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>58</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>17500</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>45695.63541666666</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>58.09999847412109</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>58.25</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>57.79999923706055</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>58.04999923706055</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1024" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
+++ b/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1024"/>
+  <dimension ref="A1:Q1032"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54262,7 +54262,9 @@
       <c r="P1015" t="n">
         <v>1</v>
       </c>
-      <c r="Q1015" t="inlineStr"/>
+      <c r="Q1015" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
@@ -54313,7 +54315,9 @@
       <c r="P1016" t="n">
         <v>0</v>
       </c>
-      <c r="Q1016" t="inlineStr"/>
+      <c r="Q1016" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
@@ -54364,7 +54368,9 @@
       <c r="P1017" t="n">
         <v>1</v>
       </c>
-      <c r="Q1017" t="inlineStr"/>
+      <c r="Q1017" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
@@ -54415,7 +54421,9 @@
       <c r="P1018" t="n">
         <v>0</v>
       </c>
-      <c r="Q1018" t="inlineStr"/>
+      <c r="Q1018" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
@@ -54466,7 +54474,9 @@
       <c r="P1019" t="n">
         <v>0</v>
       </c>
-      <c r="Q1019" t="inlineStr"/>
+      <c r="Q1019" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
@@ -54517,7 +54527,9 @@
       <c r="P1020" t="n">
         <v>0</v>
       </c>
-      <c r="Q1020" t="inlineStr"/>
+      <c r="Q1020" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
@@ -54568,7 +54580,9 @@
       <c r="P1021" t="n">
         <v>0</v>
       </c>
-      <c r="Q1021" t="inlineStr"/>
+      <c r="Q1021" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
@@ -54619,7 +54633,9 @@
       <c r="P1022" t="n">
         <v>0</v>
       </c>
-      <c r="Q1022" t="inlineStr"/>
+      <c r="Q1022" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1023">
       <c r="A1023" s="2" t="n">
@@ -54670,7 +54686,9 @@
       <c r="P1023" t="n">
         <v>0</v>
       </c>
-      <c r="Q1023" t="inlineStr"/>
+      <c r="Q1023" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
@@ -54721,7 +54739,417 @@
       <c r="P1024" t="n">
         <v>0</v>
       </c>
-      <c r="Q1024" t="inlineStr"/>
+      <c r="Q1024" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>45699.38541666666</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>56.09999847412109</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>58</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>55.79999923706055</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>55.79999923706055</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45699.51041666666</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>55</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>55</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>54.40000152587891</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>54.95000076293945</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45699.55208333334</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>54.95000076293945</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>55</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>54.95000076293945</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>55</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45699.63541666666</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>55.04999923706055</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>55.04999923706055</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>55.04999923706055</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>55.04999923706055</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45700.42708333334</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>53.09999847412109</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>54.40000152587891</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>53.09999847412109</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>54.40000152587891</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45700.46875</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>53.09999847412109</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>54.40000152587891</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>53.09999847412109</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>53.29999923706055</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45700.59375</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>53.95000076293945</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>53.95000076293945</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>53.59999847412109</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>53.59999847412109</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>12500</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45700.63541666666</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>53.29999923706055</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>53.45000076293945</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>53.29999923706055</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>53.45000076293945</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1032" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
+++ b/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1032"/>
+  <dimension ref="A1:Q1035"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54792,7 +54792,9 @@
       <c r="P1025" t="n">
         <v>0</v>
       </c>
-      <c r="Q1025" t="inlineStr"/>
+      <c r="Q1025" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
@@ -54843,7 +54845,9 @@
       <c r="P1026" t="n">
         <v>0</v>
       </c>
-      <c r="Q1026" t="inlineStr"/>
+      <c r="Q1026" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
@@ -54894,7 +54898,9 @@
       <c r="P1027" t="n">
         <v>0</v>
       </c>
-      <c r="Q1027" t="inlineStr"/>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
@@ -54945,7 +54951,9 @@
       <c r="P1028" t="n">
         <v>0</v>
       </c>
-      <c r="Q1028" t="inlineStr"/>
+      <c r="Q1028" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
@@ -54996,7 +55004,9 @@
       <c r="P1029" t="n">
         <v>0</v>
       </c>
-      <c r="Q1029" t="inlineStr"/>
+      <c r="Q1029" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1030">
       <c r="A1030" s="2" t="n">
@@ -55047,7 +55057,9 @@
       <c r="P1030" t="n">
         <v>0</v>
       </c>
-      <c r="Q1030" t="inlineStr"/>
+      <c r="Q1030" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
@@ -55098,7 +55110,9 @@
       <c r="P1031" t="n">
         <v>0</v>
       </c>
-      <c r="Q1031" t="inlineStr"/>
+      <c r="Q1031" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
@@ -55149,7 +55163,162 @@
       <c r="P1032" t="n">
         <v>0</v>
       </c>
-      <c r="Q1032" t="inlineStr"/>
+      <c r="Q1032" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45702.42708333334</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>53.29999923706055</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>53.29999923706055</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>53.29999923706055</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>53.29999923706055</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45702.55208333334</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>50</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>50.40000152587891</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45702.59375</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>51.29999923706055</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>51.29999923706055</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1035" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
+++ b/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1974"/>
+  <dimension ref="A1:Q1986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95212,7 +95212,9 @@
       <c r="P1925" t="n">
         <v>0</v>
       </c>
-      <c r="Q1925" t="inlineStr"/>
+      <c r="Q1925" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1926">
       <c r="A1926" s="2" t="n">
@@ -95263,7 +95265,9 @@
       <c r="P1926" t="n">
         <v>0</v>
       </c>
-      <c r="Q1926" t="inlineStr"/>
+      <c r="Q1926" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1927">
       <c r="A1927" s="2" t="n">
@@ -95314,7 +95318,9 @@
       <c r="P1927" t="n">
         <v>0</v>
       </c>
-      <c r="Q1927" t="inlineStr"/>
+      <c r="Q1927" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1928">
       <c r="A1928" s="2" t="n">
@@ -95365,7 +95371,9 @@
       <c r="P1928" t="n">
         <v>0</v>
       </c>
-      <c r="Q1928" t="inlineStr"/>
+      <c r="Q1928" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1929">
       <c r="A1929" s="2" t="n">
@@ -95523,7 +95531,7 @@
         <v>0</v>
       </c>
       <c r="Q1931" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1932">
@@ -95626,9 +95634,11 @@
         <v>2</v>
       </c>
       <c r="P1933" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q1933" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="Q1933" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1934">
       <c r="A1934" s="2" t="n">
@@ -95679,7 +95689,9 @@
       <c r="P1934" t="n">
         <v>0</v>
       </c>
-      <c r="Q1934" t="inlineStr"/>
+      <c r="Q1934" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1935">
       <c r="A1935" s="2" t="n">
@@ -95730,7 +95742,9 @@
       <c r="P1935" t="n">
         <v>0</v>
       </c>
-      <c r="Q1935" t="inlineStr"/>
+      <c r="Q1935" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1936">
       <c r="A1936" s="2" t="n">
@@ -95781,7 +95795,9 @@
       <c r="P1936" t="n">
         <v>0</v>
       </c>
-      <c r="Q1936" t="inlineStr"/>
+      <c r="Q1936" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1937">
       <c r="A1937" s="2" t="n">
@@ -95832,7 +95848,9 @@
       <c r="P1937" t="n">
         <v>0</v>
       </c>
-      <c r="Q1937" t="inlineStr"/>
+      <c r="Q1937" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1938">
       <c r="A1938" s="2" t="n">
@@ -95936,7 +95954,9 @@
       <c r="P1939" t="n">
         <v>0</v>
       </c>
-      <c r="Q1939" t="inlineStr"/>
+      <c r="Q1939" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1940">
       <c r="A1940" s="2" t="n">
@@ -96147,7 +96167,7 @@
         <v>0</v>
       </c>
       <c r="Q1943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1944">
@@ -96252,7 +96272,9 @@
       <c r="P1945" t="n">
         <v>0</v>
       </c>
-      <c r="Q1945" t="inlineStr"/>
+      <c r="Q1945" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1946">
       <c r="A1946" s="2" t="n">
@@ -96303,7 +96325,9 @@
       <c r="P1946" t="n">
         <v>0</v>
       </c>
-      <c r="Q1946" t="inlineStr"/>
+      <c r="Q1946" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1947">
       <c r="A1947" s="2" t="n">
@@ -96354,7 +96378,9 @@
       <c r="P1947" t="n">
         <v>0</v>
       </c>
-      <c r="Q1947" t="inlineStr"/>
+      <c r="Q1947" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1948">
       <c r="A1948" s="2" t="n">
@@ -96458,7 +96484,9 @@
       <c r="P1949" t="n">
         <v>0</v>
       </c>
-      <c r="Q1949" t="inlineStr"/>
+      <c r="Q1949" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1950">
       <c r="A1950" s="2" t="n">
@@ -96668,7 +96696,9 @@
       <c r="P1953" t="n">
         <v>0</v>
       </c>
-      <c r="Q1953" t="inlineStr"/>
+      <c r="Q1953" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1954">
       <c r="A1954" s="2" t="n">
@@ -96719,7 +96749,9 @@
       <c r="P1954" t="n">
         <v>0</v>
       </c>
-      <c r="Q1954" t="inlineStr"/>
+      <c r="Q1954" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1955">
       <c r="A1955" s="2" t="n">
@@ -96770,7 +96802,9 @@
       <c r="P1955" t="n">
         <v>0</v>
       </c>
-      <c r="Q1955" t="inlineStr"/>
+      <c r="Q1955" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1956">
       <c r="A1956" s="2" t="n">
@@ -96821,7 +96855,9 @@
       <c r="P1956" t="n">
         <v>0</v>
       </c>
-      <c r="Q1956" t="inlineStr"/>
+      <c r="Q1956" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1957">
       <c r="A1957" s="2" t="n">
@@ -97084,7 +97120,9 @@
       <c r="P1961" t="n">
         <v>0</v>
       </c>
-      <c r="Q1961" t="inlineStr"/>
+      <c r="Q1961" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1962">
       <c r="A1962" s="2" t="n">
@@ -97135,7 +97173,9 @@
       <c r="P1962" t="n">
         <v>0</v>
       </c>
-      <c r="Q1962" t="inlineStr"/>
+      <c r="Q1962" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1963">
       <c r="A1963" s="2" t="n">
@@ -97186,7 +97226,9 @@
       <c r="P1963" t="n">
         <v>0</v>
       </c>
-      <c r="Q1963" t="inlineStr"/>
+      <c r="Q1963" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1964">
       <c r="A1964" s="2" t="n">
@@ -97396,7 +97438,9 @@
       <c r="P1967" t="n">
         <v>0</v>
       </c>
-      <c r="Q1967" t="inlineStr"/>
+      <c r="Q1967" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1968">
       <c r="A1968" s="2" t="n">
@@ -97447,7 +97491,9 @@
       <c r="P1968" t="n">
         <v>0</v>
       </c>
-      <c r="Q1968" t="inlineStr"/>
+      <c r="Q1968" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1969">
       <c r="A1969" s="2" t="n">
@@ -97498,7 +97544,9 @@
       <c r="P1969" t="n">
         <v>0</v>
       </c>
-      <c r="Q1969" t="inlineStr"/>
+      <c r="Q1969" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1970">
       <c r="A1970" s="2" t="n">
@@ -97549,7 +97597,9 @@
       <c r="P1970" t="n">
         <v>0</v>
       </c>
-      <c r="Q1970" t="inlineStr"/>
+      <c r="Q1970" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1971">
       <c r="A1971" s="2" t="n">
@@ -97592,7 +97642,7 @@
         <v>8</v>
       </c>
       <c r="N1971" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O1971" t="n">
         <v>0</v>
@@ -97600,7 +97650,9 @@
       <c r="P1971" t="n">
         <v>0</v>
       </c>
-      <c r="Q1971" t="inlineStr"/>
+      <c r="Q1971" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1972">
       <c r="A1972" s="2" t="n">
@@ -97651,7 +97703,9 @@
       <c r="P1972" t="n">
         <v>0</v>
       </c>
-      <c r="Q1972" t="inlineStr"/>
+      <c r="Q1972" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1973">
       <c r="A1973" s="2" t="n">
@@ -97702,7 +97756,9 @@
       <c r="P1973" t="n">
         <v>0</v>
       </c>
-      <c r="Q1973" t="inlineStr"/>
+      <c r="Q1973" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1974">
       <c r="A1974" s="2" t="n">
@@ -97753,7 +97809,621 @@
       <c r="P1974" t="n">
         <v>0</v>
       </c>
-      <c r="Q1974" t="inlineStr"/>
+      <c r="Q1974" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" s="2" t="n">
+        <v>45709.15625</v>
+      </c>
+      <c r="B1975" t="n">
+        <v>53.75</v>
+      </c>
+      <c r="C1975" t="n">
+        <v>53.75</v>
+      </c>
+      <c r="D1975" t="n">
+        <v>53.75</v>
+      </c>
+      <c r="E1975" t="n">
+        <v>53.75</v>
+      </c>
+      <c r="F1975" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1975" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1975" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1975" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1975" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1975" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1975" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1975" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1975" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1975" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1975" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1975" t="inlineStr"/>
+    </row>
+    <row r="1976">
+      <c r="A1976" s="2" t="n">
+        <v>45709.32291666666</v>
+      </c>
+      <c r="B1976" t="n">
+        <v>50</v>
+      </c>
+      <c r="C1976" t="n">
+        <v>50</v>
+      </c>
+      <c r="D1976" t="n">
+        <v>50</v>
+      </c>
+      <c r="E1976" t="n">
+        <v>50</v>
+      </c>
+      <c r="F1976" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1976" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1976" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1976" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1976" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1976" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1976" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1976" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1976" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1976" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1976" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1976" t="inlineStr"/>
+    </row>
+    <row r="1977">
+      <c r="A1977" s="2" t="n">
+        <v>45709.36458333334</v>
+      </c>
+      <c r="B1977" t="n">
+        <v>49.04999923706055</v>
+      </c>
+      <c r="C1977" t="n">
+        <v>49.04999923706055</v>
+      </c>
+      <c r="D1977" t="n">
+        <v>49.04999923706055</v>
+      </c>
+      <c r="E1977" t="n">
+        <v>49.04999923706055</v>
+      </c>
+      <c r="F1977" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1977" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1977" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1977" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1977" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1977" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1977" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1977" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1977" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1977" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1977" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1977" t="inlineStr"/>
+    </row>
+    <row r="1978">
+      <c r="A1978" s="2" t="n">
+        <v>45709.40625</v>
+      </c>
+      <c r="B1978" t="n">
+        <v>49.70000076293945</v>
+      </c>
+      <c r="C1978" t="n">
+        <v>49.70000076293945</v>
+      </c>
+      <c r="D1978" t="n">
+        <v>49.70000076293945</v>
+      </c>
+      <c r="E1978" t="n">
+        <v>49.70000076293945</v>
+      </c>
+      <c r="F1978" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1978" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1978" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1978" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1978" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1978" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1978" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1978" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1978" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1978" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1978" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1978" t="inlineStr"/>
+    </row>
+    <row r="1979">
+      <c r="A1979" s="2" t="n">
+        <v>45712.15625</v>
+      </c>
+      <c r="B1979" t="n">
+        <v>49.70000076293945</v>
+      </c>
+      <c r="C1979" t="n">
+        <v>50</v>
+      </c>
+      <c r="D1979" t="n">
+        <v>49.70000076293945</v>
+      </c>
+      <c r="E1979" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="F1979" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1979" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1979" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1979" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1979" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1979" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1979" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1979" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1979" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1979" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1979" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1979" t="inlineStr"/>
+    </row>
+    <row r="1980">
+      <c r="A1980" s="2" t="n">
+        <v>45712.19791666666</v>
+      </c>
+      <c r="B1980" t="n">
+        <v>49.70000076293945</v>
+      </c>
+      <c r="C1980" t="n">
+        <v>49.70000076293945</v>
+      </c>
+      <c r="D1980" t="n">
+        <v>49.70000076293945</v>
+      </c>
+      <c r="E1980" t="n">
+        <v>49.70000076293945</v>
+      </c>
+      <c r="F1980" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1980" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1980" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1980" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1980" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1980" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1980" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1980" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1980" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1980" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1980" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1980" t="inlineStr"/>
+    </row>
+    <row r="1981">
+      <c r="A1981" s="2" t="n">
+        <v>45712.36458333334</v>
+      </c>
+      <c r="B1981" t="n">
+        <v>52</v>
+      </c>
+      <c r="C1981" t="n">
+        <v>52</v>
+      </c>
+      <c r="D1981" t="n">
+        <v>51.95000076293945</v>
+      </c>
+      <c r="E1981" t="n">
+        <v>51.95000076293945</v>
+      </c>
+      <c r="F1981" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1981" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1981" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1981" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1981" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1981" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1981" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1981" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1981" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1981" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1981" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1981" t="inlineStr"/>
+    </row>
+    <row r="1982">
+      <c r="A1982" s="2" t="n">
+        <v>45713.19791666666</v>
+      </c>
+      <c r="B1982" t="n">
+        <v>52</v>
+      </c>
+      <c r="C1982" t="n">
+        <v>52</v>
+      </c>
+      <c r="D1982" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1982" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1982" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1982" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1982" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1982" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1982" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1982" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1982" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1982" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1982" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1982" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1982" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1982" t="inlineStr"/>
+    </row>
+    <row r="1983">
+      <c r="A1983" s="2" t="n">
+        <v>45713.28125</v>
+      </c>
+      <c r="B1983" t="n">
+        <v>55</v>
+      </c>
+      <c r="C1983" t="n">
+        <v>59</v>
+      </c>
+      <c r="D1983" t="n">
+        <v>55</v>
+      </c>
+      <c r="E1983" t="n">
+        <v>58</v>
+      </c>
+      <c r="F1983" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G1983" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1983" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1983" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1983" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1983" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1983" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1983" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1983" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1983" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1983" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1983" t="inlineStr"/>
+    </row>
+    <row r="1984">
+      <c r="A1984" s="2" t="n">
+        <v>45713.32291666666</v>
+      </c>
+      <c r="B1984" t="n">
+        <v>59.75</v>
+      </c>
+      <c r="C1984" t="n">
+        <v>60</v>
+      </c>
+      <c r="D1984" t="n">
+        <v>58.09999847412109</v>
+      </c>
+      <c r="E1984" t="n">
+        <v>58.09999847412109</v>
+      </c>
+      <c r="F1984" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G1984" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1984" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1984" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1984" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1984" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1984" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1984" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1984" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1984" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1984" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1984" t="inlineStr"/>
+    </row>
+    <row r="1985">
+      <c r="A1985" s="2" t="n">
+        <v>45713.40625</v>
+      </c>
+      <c r="B1985" t="n">
+        <v>60</v>
+      </c>
+      <c r="C1985" t="n">
+        <v>60</v>
+      </c>
+      <c r="D1985" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1985" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1985" t="n">
+        <v>22500</v>
+      </c>
+      <c r="G1985" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1985" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1985" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1985" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1985" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1985" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1985" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1985" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1985" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1985" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1985" t="inlineStr"/>
+    </row>
+    <row r="1986">
+      <c r="A1986" s="2" t="n">
+        <v>45715.23958333334</v>
+      </c>
+      <c r="B1986" t="n">
+        <v>58.04999923706055</v>
+      </c>
+      <c r="C1986" t="n">
+        <v>58.04999923706055</v>
+      </c>
+      <c r="D1986" t="n">
+        <v>58.04999923706055</v>
+      </c>
+      <c r="E1986" t="n">
+        <v>58.04999923706055</v>
+      </c>
+      <c r="F1986" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1986" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1986" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1986" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1986" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1986" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1986" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1986" t="n">
+        <v>9</v>
+      </c>
+      <c r="N1986" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1986" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1986" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1986" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
+++ b/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1986"/>
+  <dimension ref="A1:Q2002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97862,7 +97862,9 @@
       <c r="P1975" t="n">
         <v>0</v>
       </c>
-      <c r="Q1975" t="inlineStr"/>
+      <c r="Q1975" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1976">
       <c r="A1976" s="2" t="n">
@@ -97913,7 +97915,9 @@
       <c r="P1976" t="n">
         <v>0</v>
       </c>
-      <c r="Q1976" t="inlineStr"/>
+      <c r="Q1976" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1977">
       <c r="A1977" s="2" t="n">
@@ -97964,7 +97968,9 @@
       <c r="P1977" t="n">
         <v>0</v>
       </c>
-      <c r="Q1977" t="inlineStr"/>
+      <c r="Q1977" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1978">
       <c r="A1978" s="2" t="n">
@@ -98015,7 +98021,9 @@
       <c r="P1978" t="n">
         <v>0</v>
       </c>
-      <c r="Q1978" t="inlineStr"/>
+      <c r="Q1978" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1979">
       <c r="A1979" s="2" t="n">
@@ -98066,7 +98074,9 @@
       <c r="P1979" t="n">
         <v>0</v>
       </c>
-      <c r="Q1979" t="inlineStr"/>
+      <c r="Q1979" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1980">
       <c r="A1980" s="2" t="n">
@@ -98117,7 +98127,9 @@
       <c r="P1980" t="n">
         <v>0</v>
       </c>
-      <c r="Q1980" t="inlineStr"/>
+      <c r="Q1980" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1981">
       <c r="A1981" s="2" t="n">
@@ -98168,7 +98180,9 @@
       <c r="P1981" t="n">
         <v>0</v>
       </c>
-      <c r="Q1981" t="inlineStr"/>
+      <c r="Q1981" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1982">
       <c r="A1982" s="2" t="n">
@@ -98219,7 +98233,9 @@
       <c r="P1982" t="n">
         <v>0</v>
       </c>
-      <c r="Q1982" t="inlineStr"/>
+      <c r="Q1982" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1983">
       <c r="A1983" s="2" t="n">
@@ -98270,7 +98286,9 @@
       <c r="P1983" t="n">
         <v>0</v>
       </c>
-      <c r="Q1983" t="inlineStr"/>
+      <c r="Q1983" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1984">
       <c r="A1984" s="2" t="n">
@@ -98313,7 +98331,7 @@
         <v>9</v>
       </c>
       <c r="N1984" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1984" t="n">
         <v>0</v>
@@ -98321,7 +98339,9 @@
       <c r="P1984" t="n">
         <v>0</v>
       </c>
-      <c r="Q1984" t="inlineStr"/>
+      <c r="Q1984" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1985">
       <c r="A1985" s="2" t="n">
@@ -98364,7 +98384,7 @@
         <v>9</v>
       </c>
       <c r="N1985" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1985" t="n">
         <v>0</v>
@@ -98372,7 +98392,9 @@
       <c r="P1985" t="n">
         <v>0</v>
       </c>
-      <c r="Q1985" t="inlineStr"/>
+      <c r="Q1985" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1986">
       <c r="A1986" s="2" t="n">
@@ -98423,7 +98445,825 @@
       <c r="P1986" t="n">
         <v>0</v>
       </c>
-      <c r="Q1986" t="inlineStr"/>
+      <c r="Q1986" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" s="2" t="n">
+        <v>45721.19791666666</v>
+      </c>
+      <c r="B1987" t="n">
+        <v>58</v>
+      </c>
+      <c r="C1987" t="n">
+        <v>58</v>
+      </c>
+      <c r="D1987" t="n">
+        <v>58</v>
+      </c>
+      <c r="E1987" t="n">
+        <v>58</v>
+      </c>
+      <c r="F1987" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1987" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1987" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1987" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1987" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1987" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1987" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1987" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1987" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1987" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1987" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1987" t="inlineStr"/>
+    </row>
+    <row r="1988">
+      <c r="A1988" s="2" t="n">
+        <v>45722.15625</v>
+      </c>
+      <c r="B1988" t="n">
+        <v>52.20000076293945</v>
+      </c>
+      <c r="C1988" t="n">
+        <v>54</v>
+      </c>
+      <c r="D1988" t="n">
+        <v>52.20000076293945</v>
+      </c>
+      <c r="E1988" t="n">
+        <v>54</v>
+      </c>
+      <c r="F1988" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G1988" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1988" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1988" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1988" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1988" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1988" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1988" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1988" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1988" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1988" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1988" t="inlineStr"/>
+    </row>
+    <row r="1989">
+      <c r="A1989" s="2" t="n">
+        <v>45722.19791666666</v>
+      </c>
+      <c r="B1989" t="n">
+        <v>53.04999923706055</v>
+      </c>
+      <c r="C1989" t="n">
+        <v>53.04999923706055</v>
+      </c>
+      <c r="D1989" t="n">
+        <v>53</v>
+      </c>
+      <c r="E1989" t="n">
+        <v>53</v>
+      </c>
+      <c r="F1989" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1989" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1989" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1989" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1989" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1989" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1989" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1989" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1989" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1989" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1989" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1989" t="inlineStr"/>
+    </row>
+    <row r="1990">
+      <c r="A1990" s="2" t="n">
+        <v>45722.23958333334</v>
+      </c>
+      <c r="B1990" t="n">
+        <v>52.79999923706055</v>
+      </c>
+      <c r="C1990" t="n">
+        <v>52.79999923706055</v>
+      </c>
+      <c r="D1990" t="n">
+        <v>52.79999923706055</v>
+      </c>
+      <c r="E1990" t="n">
+        <v>52.79999923706055</v>
+      </c>
+      <c r="F1990" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1990" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1990" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1990" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1990" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1990" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1990" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1990" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1990" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1990" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1990" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1990" t="inlineStr"/>
+    </row>
+    <row r="1991">
+      <c r="A1991" s="2" t="n">
+        <v>45722.28125</v>
+      </c>
+      <c r="B1991" t="n">
+        <v>53.79999923706055</v>
+      </c>
+      <c r="C1991" t="n">
+        <v>53.79999923706055</v>
+      </c>
+      <c r="D1991" t="n">
+        <v>53.79999923706055</v>
+      </c>
+      <c r="E1991" t="n">
+        <v>53.79999923706055</v>
+      </c>
+      <c r="F1991" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1991" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1991" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1991" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1991" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1991" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1991" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1991" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1991" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1991" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1991" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1991" t="inlineStr"/>
+    </row>
+    <row r="1992">
+      <c r="A1992" s="2" t="n">
+        <v>45722.32291666666</v>
+      </c>
+      <c r="B1992" t="n">
+        <v>53</v>
+      </c>
+      <c r="C1992" t="n">
+        <v>53</v>
+      </c>
+      <c r="D1992" t="n">
+        <v>53</v>
+      </c>
+      <c r="E1992" t="n">
+        <v>53</v>
+      </c>
+      <c r="F1992" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1992" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1992" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1992" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1992" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1992" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1992" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1992" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1992" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1992" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1992" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1992" t="inlineStr"/>
+    </row>
+    <row r="1993">
+      <c r="A1993" s="2" t="n">
+        <v>45722.36458333334</v>
+      </c>
+      <c r="B1993" t="n">
+        <v>53</v>
+      </c>
+      <c r="C1993" t="n">
+        <v>53</v>
+      </c>
+      <c r="D1993" t="n">
+        <v>53</v>
+      </c>
+      <c r="E1993" t="n">
+        <v>53</v>
+      </c>
+      <c r="F1993" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1993" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1993" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1993" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1993" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1993" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1993" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1993" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1993" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1993" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1993" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1993" t="inlineStr"/>
+    </row>
+    <row r="1994">
+      <c r="A1994" s="2" t="n">
+        <v>45722.40625</v>
+      </c>
+      <c r="B1994" t="n">
+        <v>53.09999847412109</v>
+      </c>
+      <c r="C1994" t="n">
+        <v>53.09999847412109</v>
+      </c>
+      <c r="D1994" t="n">
+        <v>53.09999847412109</v>
+      </c>
+      <c r="E1994" t="n">
+        <v>53.09999847412109</v>
+      </c>
+      <c r="F1994" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1994" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1994" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1994" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1994" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1994" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1994" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1994" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1994" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1994" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1994" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1994" t="inlineStr"/>
+    </row>
+    <row r="1995">
+      <c r="A1995" s="2" t="n">
+        <v>45723.15625</v>
+      </c>
+      <c r="B1995" t="n">
+        <v>53.09999847412109</v>
+      </c>
+      <c r="C1995" t="n">
+        <v>53.09999847412109</v>
+      </c>
+      <c r="D1995" t="n">
+        <v>53</v>
+      </c>
+      <c r="E1995" t="n">
+        <v>53</v>
+      </c>
+      <c r="F1995" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1995" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1995" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1995" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1995" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1995" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1995" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1995" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1995" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1995" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1995" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1995" t="inlineStr"/>
+    </row>
+    <row r="1996">
+      <c r="A1996" s="2" t="n">
+        <v>45723.19791666666</v>
+      </c>
+      <c r="B1996" t="n">
+        <v>53.65000152587891</v>
+      </c>
+      <c r="C1996" t="n">
+        <v>53.65000152587891</v>
+      </c>
+      <c r="D1996" t="n">
+        <v>53.65000152587891</v>
+      </c>
+      <c r="E1996" t="n">
+        <v>53.65000152587891</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G1996" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1996" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1996" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1996" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1996" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1996" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1996" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1996" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1996" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1996" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1996" t="inlineStr"/>
+    </row>
+    <row r="1997">
+      <c r="A1997" s="2" t="n">
+        <v>45723.32291666666</v>
+      </c>
+      <c r="B1997" t="n">
+        <v>53.04999923706055</v>
+      </c>
+      <c r="C1997" t="n">
+        <v>53.04999923706055</v>
+      </c>
+      <c r="D1997" t="n">
+        <v>53</v>
+      </c>
+      <c r="E1997" t="n">
+        <v>53</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G1997" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1997" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1997" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1997" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1997" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1997" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1997" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1997" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1997" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1997" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1997" t="inlineStr"/>
+    </row>
+    <row r="1998">
+      <c r="A1998" s="2" t="n">
+        <v>45723.36458333334</v>
+      </c>
+      <c r="B1998" t="n">
+        <v>53</v>
+      </c>
+      <c r="C1998" t="n">
+        <v>53</v>
+      </c>
+      <c r="D1998" t="n">
+        <v>53</v>
+      </c>
+      <c r="E1998" t="n">
+        <v>53</v>
+      </c>
+      <c r="F1998" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1998" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1998" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1998" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1998" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1998" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1998" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1998" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1998" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1998" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1998" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1998" t="inlineStr"/>
+    </row>
+    <row r="1999">
+      <c r="A1999" s="2" t="n">
+        <v>45723.40625</v>
+      </c>
+      <c r="B1999" t="n">
+        <v>52.59999847412109</v>
+      </c>
+      <c r="C1999" t="n">
+        <v>53</v>
+      </c>
+      <c r="D1999" t="n">
+        <v>52.59999847412109</v>
+      </c>
+      <c r="E1999" t="n">
+        <v>52.79999923706055</v>
+      </c>
+      <c r="F1999" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G1999" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1999" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1999" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1999" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1999" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1999" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1999" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1999" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1999" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1999" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1999" t="inlineStr"/>
+    </row>
+    <row r="2000">
+      <c r="A2000" s="2" t="n">
+        <v>45726.28125</v>
+      </c>
+      <c r="B2000" t="n">
+        <v>53</v>
+      </c>
+      <c r="C2000" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2000" t="n">
+        <v>53</v>
+      </c>
+      <c r="E2000" t="n">
+        <v>53</v>
+      </c>
+      <c r="F2000" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2000" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2000" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2000" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2000" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2000" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2000" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2000" t="n">
+        <v>11</v>
+      </c>
+      <c r="N2000" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2000" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2000" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2000" t="inlineStr"/>
+    </row>
+    <row r="2001">
+      <c r="A2001" s="2" t="n">
+        <v>45726.32291666666</v>
+      </c>
+      <c r="B2001" t="n">
+        <v>53</v>
+      </c>
+      <c r="C2001" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2001" t="n">
+        <v>53</v>
+      </c>
+      <c r="E2001" t="n">
+        <v>53</v>
+      </c>
+      <c r="F2001" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G2001" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2001" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2001" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2001" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2001" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2001" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2001" t="n">
+        <v>11</v>
+      </c>
+      <c r="N2001" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2001" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2001" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2001" t="inlineStr"/>
+    </row>
+    <row r="2002">
+      <c r="A2002" s="2" t="n">
+        <v>45726.40625</v>
+      </c>
+      <c r="B2002" t="n">
+        <v>53</v>
+      </c>
+      <c r="C2002" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2002" t="n">
+        <v>53</v>
+      </c>
+      <c r="E2002" t="n">
+        <v>53</v>
+      </c>
+      <c r="F2002" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G2002" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2002" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2002" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2002" t="n">
+        <v>9</v>
+      </c>
+      <c r="K2002" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2002" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2002" t="n">
+        <v>11</v>
+      </c>
+      <c r="N2002" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2002" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2002" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2002" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
+++ b/stock_historical_data/60m/DUGLOBAL-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2002"/>
+  <dimension ref="A1:Q2049"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98498,7 +98498,9 @@
       <c r="P1987" t="n">
         <v>0</v>
       </c>
-      <c r="Q1987" t="inlineStr"/>
+      <c r="Q1987" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1988">
       <c r="A1988" s="2" t="n">
@@ -98549,7 +98551,9 @@
       <c r="P1988" t="n">
         <v>0</v>
       </c>
-      <c r="Q1988" t="inlineStr"/>
+      <c r="Q1988" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1989">
       <c r="A1989" s="2" t="n">
@@ -98600,7 +98604,9 @@
       <c r="P1989" t="n">
         <v>0</v>
       </c>
-      <c r="Q1989" t="inlineStr"/>
+      <c r="Q1989" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1990">
       <c r="A1990" s="2" t="n">
@@ -98651,7 +98657,9 @@
       <c r="P1990" t="n">
         <v>0</v>
       </c>
-      <c r="Q1990" t="inlineStr"/>
+      <c r="Q1990" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1991">
       <c r="A1991" s="2" t="n">
@@ -98702,7 +98710,9 @@
       <c r="P1991" t="n">
         <v>0</v>
       </c>
-      <c r="Q1991" t="inlineStr"/>
+      <c r="Q1991" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1992">
       <c r="A1992" s="2" t="n">
@@ -98753,7 +98763,9 @@
       <c r="P1992" t="n">
         <v>0</v>
       </c>
-      <c r="Q1992" t="inlineStr"/>
+      <c r="Q1992" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1993">
       <c r="A1993" s="2" t="n">
@@ -98804,7 +98816,9 @@
       <c r="P1993" t="n">
         <v>0</v>
       </c>
-      <c r="Q1993" t="inlineStr"/>
+      <c r="Q1993" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1994">
       <c r="A1994" s="2" t="n">
@@ -98855,7 +98869,9 @@
       <c r="P1994" t="n">
         <v>0</v>
       </c>
-      <c r="Q1994" t="inlineStr"/>
+      <c r="Q1994" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1995">
       <c r="A1995" s="2" t="n">
@@ -98904,9 +98920,11 @@
         <v>2</v>
       </c>
       <c r="P1995" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q1995" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="Q1995" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1996">
       <c r="A1996" s="2" t="n">
@@ -98957,7 +98975,9 @@
       <c r="P1996" t="n">
         <v>2</v>
       </c>
-      <c r="Q1996" t="inlineStr"/>
+      <c r="Q1996" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1997">
       <c r="A1997" s="2" t="n">
@@ -99008,7 +99028,9 @@
       <c r="P1997" t="n">
         <v>0</v>
       </c>
-      <c r="Q1997" t="inlineStr"/>
+      <c r="Q1997" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1998">
       <c r="A1998" s="2" t="n">
@@ -99059,7 +99081,9 @@
       <c r="P1998" t="n">
         <v>0</v>
       </c>
-      <c r="Q1998" t="inlineStr"/>
+      <c r="Q1998" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1999">
       <c r="A1999" s="2" t="n">
@@ -99110,7 +99134,9 @@
       <c r="P1999" t="n">
         <v>0</v>
       </c>
-      <c r="Q1999" t="inlineStr"/>
+      <c r="Q1999" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2000">
       <c r="A2000" s="2" t="n">
@@ -99161,7 +99187,9 @@
       <c r="P2000" t="n">
         <v>0</v>
       </c>
-      <c r="Q2000" t="inlineStr"/>
+      <c r="Q2000" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2001">
       <c r="A2001" s="2" t="n">
@@ -99212,7 +99240,9 @@
       <c r="P2001" t="n">
         <v>0</v>
       </c>
-      <c r="Q2001" t="inlineStr"/>
+      <c r="Q2001" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2002">
       <c r="A2002" s="2" t="n">
@@ -99263,7 +99293,2406 @@
       <c r="P2002" t="n">
         <v>0</v>
       </c>
-      <c r="Q2002" t="inlineStr"/>
+      <c r="Q2002" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" s="2" t="n">
+        <v>45727.19791666666</v>
+      </c>
+      <c r="B2003" t="n">
+        <v>52</v>
+      </c>
+      <c r="C2003" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2003" t="n">
+        <v>52</v>
+      </c>
+      <c r="E2003" t="n">
+        <v>52</v>
+      </c>
+      <c r="F2003" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2003" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2003" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2003" t="n">
+        <v>11</v>
+      </c>
+      <c r="J2003" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2003" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2003" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2003" t="n">
+        <v>11</v>
+      </c>
+      <c r="N2003" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2003" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2003" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2003" t="inlineStr"/>
+    </row>
+    <row r="2004">
+      <c r="A2004" s="2" t="n">
+        <v>45727.40625</v>
+      </c>
+      <c r="B2004" t="n">
+        <v>52</v>
+      </c>
+      <c r="C2004" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2004" t="n">
+        <v>52</v>
+      </c>
+      <c r="E2004" t="n">
+        <v>52</v>
+      </c>
+      <c r="F2004" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G2004" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2004" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2004" t="n">
+        <v>11</v>
+      </c>
+      <c r="J2004" t="n">
+        <v>9</v>
+      </c>
+      <c r="K2004" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2004" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2004" t="n">
+        <v>11</v>
+      </c>
+      <c r="N2004" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2004" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2004" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2004" t="inlineStr"/>
+    </row>
+    <row r="2005">
+      <c r="A2005" s="2" t="n">
+        <v>45728.15625</v>
+      </c>
+      <c r="B2005" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="C2005" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="D2005" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="E2005" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="F2005" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2005" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2005" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2005" t="n">
+        <v>12</v>
+      </c>
+      <c r="J2005" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2005" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2005" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2005" t="n">
+        <v>11</v>
+      </c>
+      <c r="N2005" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2005" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2005" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2005" t="inlineStr"/>
+    </row>
+    <row r="2006">
+      <c r="A2006" s="2" t="n">
+        <v>45729.19791666666</v>
+      </c>
+      <c r="B2006" t="n">
+        <v>52</v>
+      </c>
+      <c r="C2006" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2006" t="n">
+        <v>52</v>
+      </c>
+      <c r="E2006" t="n">
+        <v>53</v>
+      </c>
+      <c r="F2006" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G2006" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2006" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2006" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2006" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2006" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2006" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2006" t="n">
+        <v>11</v>
+      </c>
+      <c r="N2006" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2006" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2006" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2006" t="inlineStr"/>
+    </row>
+    <row r="2007">
+      <c r="A2007" s="2" t="n">
+        <v>45729.32291666666</v>
+      </c>
+      <c r="B2007" t="n">
+        <v>52.09999847412109</v>
+      </c>
+      <c r="C2007" t="n">
+        <v>52.09999847412109</v>
+      </c>
+      <c r="D2007" t="n">
+        <v>52.09999847412109</v>
+      </c>
+      <c r="E2007" t="n">
+        <v>52.09999847412109</v>
+      </c>
+      <c r="F2007" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G2007" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2007" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2007" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2007" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2007" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2007" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2007" t="n">
+        <v>11</v>
+      </c>
+      <c r="N2007" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2007" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2007" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2007" t="inlineStr"/>
+    </row>
+    <row r="2008">
+      <c r="A2008" s="2" t="n">
+        <v>45733.28125</v>
+      </c>
+      <c r="B2008" t="n">
+        <v>50.09999847412109</v>
+      </c>
+      <c r="C2008" t="n">
+        <v>50.09999847412109</v>
+      </c>
+      <c r="D2008" t="n">
+        <v>50.09999847412109</v>
+      </c>
+      <c r="E2008" t="n">
+        <v>50.09999847412109</v>
+      </c>
+      <c r="F2008" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2008" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2008" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2008" t="n">
+        <v>17</v>
+      </c>
+      <c r="J2008" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2008" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2008" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2008" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2008" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2008" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2008" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2008" t="inlineStr"/>
+    </row>
+    <row r="2009">
+      <c r="A2009" s="2" t="n">
+        <v>45733.40625</v>
+      </c>
+      <c r="B2009" t="n">
+        <v>48.79999923706055</v>
+      </c>
+      <c r="C2009" t="n">
+        <v>48.79999923706055</v>
+      </c>
+      <c r="D2009" t="n">
+        <v>48.79999923706055</v>
+      </c>
+      <c r="E2009" t="n">
+        <v>48.79999923706055</v>
+      </c>
+      <c r="F2009" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G2009" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2009" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2009" t="n">
+        <v>17</v>
+      </c>
+      <c r="J2009" t="n">
+        <v>9</v>
+      </c>
+      <c r="K2009" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2009" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2009" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2009" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2009" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2009" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2009" t="inlineStr"/>
+    </row>
+    <row r="2010">
+      <c r="A2010" s="2" t="n">
+        <v>45734.15625</v>
+      </c>
+      <c r="B2010" t="n">
+        <v>48.79999923706055</v>
+      </c>
+      <c r="C2010" t="n">
+        <v>48.79999923706055</v>
+      </c>
+      <c r="D2010" t="n">
+        <v>48.79999923706055</v>
+      </c>
+      <c r="E2010" t="n">
+        <v>48.79999923706055</v>
+      </c>
+      <c r="F2010" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2010" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2010" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2010" t="n">
+        <v>18</v>
+      </c>
+      <c r="J2010" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2010" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2010" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2010" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2010" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2010" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2010" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2010" t="inlineStr"/>
+    </row>
+    <row r="2011">
+      <c r="A2011" s="2" t="n">
+        <v>45734.19791666666</v>
+      </c>
+      <c r="B2011" t="n">
+        <v>49</v>
+      </c>
+      <c r="C2011" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2011" t="n">
+        <v>49</v>
+      </c>
+      <c r="E2011" t="n">
+        <v>49</v>
+      </c>
+      <c r="F2011" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G2011" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2011" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2011" t="n">
+        <v>18</v>
+      </c>
+      <c r="J2011" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2011" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2011" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2011" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2011" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2011" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2011" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2011" t="inlineStr"/>
+    </row>
+    <row r="2012">
+      <c r="A2012" s="2" t="n">
+        <v>45734.23958333334</v>
+      </c>
+      <c r="B2012" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2012" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2012" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2012" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2012" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G2012" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2012" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2012" t="n">
+        <v>18</v>
+      </c>
+      <c r="J2012" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2012" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2012" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2012" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2012" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2012" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2012" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2012" t="inlineStr"/>
+    </row>
+    <row r="2013">
+      <c r="A2013" s="2" t="n">
+        <v>45734.36458333334</v>
+      </c>
+      <c r="B2013" t="n">
+        <v>53</v>
+      </c>
+      <c r="C2013" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2013" t="n">
+        <v>51</v>
+      </c>
+      <c r="E2013" t="n">
+        <v>51</v>
+      </c>
+      <c r="F2013" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G2013" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2013" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2013" t="n">
+        <v>18</v>
+      </c>
+      <c r="J2013" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2013" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2013" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2013" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2013" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2013" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2013" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2013" t="inlineStr"/>
+    </row>
+    <row r="2014">
+      <c r="A2014" s="2" t="n">
+        <v>45735.15625</v>
+      </c>
+      <c r="B2014" t="n">
+        <v>51.34999847412109</v>
+      </c>
+      <c r="C2014" t="n">
+        <v>51.34999847412109</v>
+      </c>
+      <c r="D2014" t="n">
+        <v>51.34999847412109</v>
+      </c>
+      <c r="E2014" t="n">
+        <v>51.34999847412109</v>
+      </c>
+      <c r="F2014" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2014" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2014" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2014" t="n">
+        <v>19</v>
+      </c>
+      <c r="J2014" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2014" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2014" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2014" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2014" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2014" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2014" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2014" t="inlineStr"/>
+    </row>
+    <row r="2015">
+      <c r="A2015" s="2" t="n">
+        <v>45735.32291666666</v>
+      </c>
+      <c r="B2015" t="n">
+        <v>49.90000152587891</v>
+      </c>
+      <c r="C2015" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D2015" t="n">
+        <v>49.90000152587891</v>
+      </c>
+      <c r="E2015" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F2015" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G2015" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2015" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2015" t="n">
+        <v>19</v>
+      </c>
+      <c r="J2015" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2015" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2015" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2015" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2015" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2015" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2015" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2015" t="inlineStr"/>
+    </row>
+    <row r="2016">
+      <c r="A2016" s="2" t="n">
+        <v>45736.15625</v>
+      </c>
+      <c r="B2016" t="n">
+        <v>49.90000152587891</v>
+      </c>
+      <c r="C2016" t="n">
+        <v>49.90000152587891</v>
+      </c>
+      <c r="D2016" t="n">
+        <v>49.09999847412109</v>
+      </c>
+      <c r="E2016" t="n">
+        <v>49.09999847412109</v>
+      </c>
+      <c r="F2016" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2016" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2016" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2016" t="n">
+        <v>20</v>
+      </c>
+      <c r="J2016" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2016" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2016" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2016" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2016" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2016" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2016" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2016" t="inlineStr"/>
+    </row>
+    <row r="2017">
+      <c r="A2017" s="2" t="n">
+        <v>45736.19791666666</v>
+      </c>
+      <c r="B2017" t="n">
+        <v>50.04999923706055</v>
+      </c>
+      <c r="C2017" t="n">
+        <v>50.04999923706055</v>
+      </c>
+      <c r="D2017" t="n">
+        <v>50.04999923706055</v>
+      </c>
+      <c r="E2017" t="n">
+        <v>50.04999923706055</v>
+      </c>
+      <c r="F2017" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G2017" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2017" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2017" t="n">
+        <v>20</v>
+      </c>
+      <c r="J2017" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2017" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2017" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2017" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2017" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2017" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2017" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2017" t="inlineStr"/>
+    </row>
+    <row r="2018">
+      <c r="A2018" s="2" t="n">
+        <v>45736.23958333334</v>
+      </c>
+      <c r="B2018" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2018" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2018" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2018" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2018" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G2018" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2018" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2018" t="n">
+        <v>20</v>
+      </c>
+      <c r="J2018" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2018" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2018" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2018" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2018" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2018" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2018" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2018" t="inlineStr"/>
+    </row>
+    <row r="2019">
+      <c r="A2019" s="2" t="n">
+        <v>45736.40625</v>
+      </c>
+      <c r="B2019" t="n">
+        <v>49.65000152587891</v>
+      </c>
+      <c r="C2019" t="n">
+        <v>49.65000152587891</v>
+      </c>
+      <c r="D2019" t="n">
+        <v>49.65000152587891</v>
+      </c>
+      <c r="E2019" t="n">
+        <v>49.65000152587891</v>
+      </c>
+      <c r="F2019" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G2019" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2019" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2019" t="n">
+        <v>20</v>
+      </c>
+      <c r="J2019" t="n">
+        <v>9</v>
+      </c>
+      <c r="K2019" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2019" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2019" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2019" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2019" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2019" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2019" t="inlineStr"/>
+    </row>
+    <row r="2020">
+      <c r="A2020" s="2" t="n">
+        <v>45737.15625</v>
+      </c>
+      <c r="B2020" t="n">
+        <v>49.29999923706055</v>
+      </c>
+      <c r="C2020" t="n">
+        <v>51</v>
+      </c>
+      <c r="D2020" t="n">
+        <v>49.29999923706055</v>
+      </c>
+      <c r="E2020" t="n">
+        <v>51</v>
+      </c>
+      <c r="F2020" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G2020" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2020" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2020" t="n">
+        <v>21</v>
+      </c>
+      <c r="J2020" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2020" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2020" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2020" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2020" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2020" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2020" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2020" t="inlineStr"/>
+    </row>
+    <row r="2021">
+      <c r="A2021" s="2" t="n">
+        <v>45737.23958333334</v>
+      </c>
+      <c r="B2021" t="n">
+        <v>50.45000076293945</v>
+      </c>
+      <c r="C2021" t="n">
+        <v>50.45000076293945</v>
+      </c>
+      <c r="D2021" t="n">
+        <v>50.40000152587891</v>
+      </c>
+      <c r="E2021" t="n">
+        <v>50.40000152587891</v>
+      </c>
+      <c r="F2021" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2021" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2021" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2021" t="n">
+        <v>21</v>
+      </c>
+      <c r="J2021" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2021" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2021" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2021" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2021" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2021" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2021" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2021" t="inlineStr"/>
+    </row>
+    <row r="2022">
+      <c r="A2022" s="2" t="n">
+        <v>45737.32291666666</v>
+      </c>
+      <c r="B2022" t="n">
+        <v>51.90000152587891</v>
+      </c>
+      <c r="C2022" t="n">
+        <v>51.90000152587891</v>
+      </c>
+      <c r="D2022" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2022" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2022" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G2022" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2022" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2022" t="n">
+        <v>21</v>
+      </c>
+      <c r="J2022" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2022" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2022" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2022" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2022" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2022" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2022" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2022" t="inlineStr"/>
+    </row>
+    <row r="2023">
+      <c r="A2023" s="2" t="n">
+        <v>45737.36458333334</v>
+      </c>
+      <c r="B2023" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2023" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2023" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2023" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2023" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G2023" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2023" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2023" t="n">
+        <v>21</v>
+      </c>
+      <c r="J2023" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2023" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2023" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2023" t="n">
+        <v>12</v>
+      </c>
+      <c r="N2023" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2023" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2023" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2023" t="inlineStr"/>
+    </row>
+    <row r="2024">
+      <c r="A2024" s="2" t="n">
+        <v>45740.15625</v>
+      </c>
+      <c r="B2024" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2024" t="n">
+        <v>50.34999847412109</v>
+      </c>
+      <c r="D2024" t="n">
+        <v>49.84999847412109</v>
+      </c>
+      <c r="E2024" t="n">
+        <v>50.34999847412109</v>
+      </c>
+      <c r="F2024" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2024" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2024" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2024" t="n">
+        <v>24</v>
+      </c>
+      <c r="J2024" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2024" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2024" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2024" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2024" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2024" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2024" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2024" t="inlineStr"/>
+    </row>
+    <row r="2025">
+      <c r="A2025" s="2" t="n">
+        <v>45740.28125</v>
+      </c>
+      <c r="B2025" t="n">
+        <v>51.75</v>
+      </c>
+      <c r="C2025" t="n">
+        <v>54.79999923706055</v>
+      </c>
+      <c r="D2025" t="n">
+        <v>49.54999923706055</v>
+      </c>
+      <c r="E2025" t="n">
+        <v>49.54999923706055</v>
+      </c>
+      <c r="F2025" t="n">
+        <v>17500</v>
+      </c>
+      <c r="G2025" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2025" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2025" t="n">
+        <v>24</v>
+      </c>
+      <c r="J2025" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2025" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2025" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2025" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2025" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2025" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2025" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2025" t="inlineStr"/>
+    </row>
+    <row r="2026">
+      <c r="A2026" s="2" t="n">
+        <v>45740.36458333334</v>
+      </c>
+      <c r="B2026" t="n">
+        <v>50.65000152587891</v>
+      </c>
+      <c r="C2026" t="n">
+        <v>50.70000076293945</v>
+      </c>
+      <c r="D2026" t="n">
+        <v>50.65000152587891</v>
+      </c>
+      <c r="E2026" t="n">
+        <v>50.70000076293945</v>
+      </c>
+      <c r="F2026" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2026" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2026" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2026" t="n">
+        <v>24</v>
+      </c>
+      <c r="J2026" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2026" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2026" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2026" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2026" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2026" t="inlineStr"/>
+    </row>
+    <row r="2027">
+      <c r="A2027" s="2" t="n">
+        <v>45741.15625</v>
+      </c>
+      <c r="B2027" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="C2027" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="D2027" t="n">
+        <v>49.59999847412109</v>
+      </c>
+      <c r="E2027" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="F2027" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2027" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2027" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2027" t="n">
+        <v>25</v>
+      </c>
+      <c r="J2027" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2027" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2027" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2027" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2027" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2027" t="inlineStr"/>
+    </row>
+    <row r="2028">
+      <c r="A2028" s="2" t="n">
+        <v>45741.19791666666</v>
+      </c>
+      <c r="B2028" t="n">
+        <v>50.95000076293945</v>
+      </c>
+      <c r="C2028" t="n">
+        <v>50.95000076293945</v>
+      </c>
+      <c r="D2028" t="n">
+        <v>49.40000152587891</v>
+      </c>
+      <c r="E2028" t="n">
+        <v>49.40000152587891</v>
+      </c>
+      <c r="F2028" t="n">
+        <v>32500</v>
+      </c>
+      <c r="G2028" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2028" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2028" t="n">
+        <v>25</v>
+      </c>
+      <c r="J2028" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2028" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2028" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2028" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2028" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2028" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2028" t="inlineStr"/>
+    </row>
+    <row r="2029">
+      <c r="A2029" s="2" t="n">
+        <v>45741.23958333334</v>
+      </c>
+      <c r="B2029" t="n">
+        <v>49.45000076293945</v>
+      </c>
+      <c r="C2029" t="n">
+        <v>49.45000076293945</v>
+      </c>
+      <c r="D2029" t="n">
+        <v>49.40000152587891</v>
+      </c>
+      <c r="E2029" t="n">
+        <v>49.40000152587891</v>
+      </c>
+      <c r="F2029" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2029" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2029" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2029" t="n">
+        <v>25</v>
+      </c>
+      <c r="J2029" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2029" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2029" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2029" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2029" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2029" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2029" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2029" t="inlineStr"/>
+    </row>
+    <row r="2030">
+      <c r="A2030" s="2" t="n">
+        <v>45741.32291666666</v>
+      </c>
+      <c r="B2030" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2030" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2030" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2030" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2030" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2030" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2030" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2030" t="n">
+        <v>25</v>
+      </c>
+      <c r="J2030" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2030" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2030" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2030" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2030" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2030" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2030" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2030" t="inlineStr"/>
+    </row>
+    <row r="2031">
+      <c r="A2031" s="2" t="n">
+        <v>45741.36458333334</v>
+      </c>
+      <c r="B2031" t="n">
+        <v>49.54999923706055</v>
+      </c>
+      <c r="C2031" t="n">
+        <v>49.54999923706055</v>
+      </c>
+      <c r="D2031" t="n">
+        <v>49.54999923706055</v>
+      </c>
+      <c r="E2031" t="n">
+        <v>49.54999923706055</v>
+      </c>
+      <c r="F2031" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G2031" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2031" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2031" t="n">
+        <v>25</v>
+      </c>
+      <c r="J2031" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2031" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2031" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2031" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2031" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2031" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2031" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2031" t="inlineStr"/>
+    </row>
+    <row r="2032">
+      <c r="A2032" s="2" t="n">
+        <v>45741.40625</v>
+      </c>
+      <c r="B2032" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="C2032" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="D2032" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="E2032" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="F2032" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G2032" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2032" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2032" t="n">
+        <v>25</v>
+      </c>
+      <c r="J2032" t="n">
+        <v>9</v>
+      </c>
+      <c r="K2032" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2032" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2032" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2032" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2032" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2032" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2032" t="inlineStr"/>
+    </row>
+    <row r="2033">
+      <c r="A2033" s="2" t="n">
+        <v>45742.15625</v>
+      </c>
+      <c r="B2033" t="n">
+        <v>50.34999847412109</v>
+      </c>
+      <c r="C2033" t="n">
+        <v>50.75</v>
+      </c>
+      <c r="D2033" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E2033" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F2033" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2033" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2033" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2033" t="n">
+        <v>26</v>
+      </c>
+      <c r="J2033" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2033" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2033" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2033" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2033" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2033" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2033" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2033" t="inlineStr"/>
+    </row>
+    <row r="2034">
+      <c r="A2034" s="2" t="n">
+        <v>45742.19791666666</v>
+      </c>
+      <c r="B2034" t="n">
+        <v>49.15000152587891</v>
+      </c>
+      <c r="C2034" t="n">
+        <v>49.40000152587891</v>
+      </c>
+      <c r="D2034" t="n">
+        <v>49.15000152587891</v>
+      </c>
+      <c r="E2034" t="n">
+        <v>49.34999847412109</v>
+      </c>
+      <c r="F2034" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G2034" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2034" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2034" t="n">
+        <v>26</v>
+      </c>
+      <c r="J2034" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2034" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2034" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2034" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2034" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2034" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2034" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2034" t="inlineStr"/>
+    </row>
+    <row r="2035">
+      <c r="A2035" s="2" t="n">
+        <v>45742.23958333334</v>
+      </c>
+      <c r="B2035" t="n">
+        <v>49.45000076293945</v>
+      </c>
+      <c r="C2035" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D2035" t="n">
+        <v>49.40000152587891</v>
+      </c>
+      <c r="E2035" t="n">
+        <v>49.40000152587891</v>
+      </c>
+      <c r="F2035" t="n">
+        <v>55000</v>
+      </c>
+      <c r="G2035" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2035" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2035" t="n">
+        <v>26</v>
+      </c>
+      <c r="J2035" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2035" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2035" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2035" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2035" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2035" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2035" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2035" t="inlineStr"/>
+    </row>
+    <row r="2036">
+      <c r="A2036" s="2" t="n">
+        <v>45742.28125</v>
+      </c>
+      <c r="B2036" t="n">
+        <v>49.40000152587891</v>
+      </c>
+      <c r="C2036" t="n">
+        <v>49.45000076293945</v>
+      </c>
+      <c r="D2036" t="n">
+        <v>49.40000152587891</v>
+      </c>
+      <c r="E2036" t="n">
+        <v>49.45000076293945</v>
+      </c>
+      <c r="F2036" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G2036" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2036" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2036" t="n">
+        <v>26</v>
+      </c>
+      <c r="J2036" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2036" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2036" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2036" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2036" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2036" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2036" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2036" t="inlineStr"/>
+    </row>
+    <row r="2037">
+      <c r="A2037" s="2" t="n">
+        <v>45742.32291666666</v>
+      </c>
+      <c r="B2037" t="n">
+        <v>49.29999923706055</v>
+      </c>
+      <c r="C2037" t="n">
+        <v>49.29999923706055</v>
+      </c>
+      <c r="D2037" t="n">
+        <v>49.20000076293945</v>
+      </c>
+      <c r="E2037" t="n">
+        <v>49.20000076293945</v>
+      </c>
+      <c r="F2037" t="n">
+        <v>17500</v>
+      </c>
+      <c r="G2037" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2037" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2037" t="n">
+        <v>26</v>
+      </c>
+      <c r="J2037" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2037" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2037" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2037" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2037" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2037" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2037" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2037" t="inlineStr"/>
+    </row>
+    <row r="2038">
+      <c r="A2038" s="2" t="n">
+        <v>45742.36458333334</v>
+      </c>
+      <c r="B2038" t="n">
+        <v>49.25</v>
+      </c>
+      <c r="C2038" t="n">
+        <v>49.25</v>
+      </c>
+      <c r="D2038" t="n">
+        <v>49.20000076293945</v>
+      </c>
+      <c r="E2038" t="n">
+        <v>49.20000076293945</v>
+      </c>
+      <c r="F2038" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G2038" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2038" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2038" t="n">
+        <v>26</v>
+      </c>
+      <c r="J2038" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2038" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2038" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2038" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2038" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2038" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2038" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2038" t="inlineStr"/>
+    </row>
+    <row r="2039">
+      <c r="A2039" s="2" t="n">
+        <v>45742.40625</v>
+      </c>
+      <c r="B2039" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C2039" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D2039" t="n">
+        <v>49.29999923706055</v>
+      </c>
+      <c r="E2039" t="n">
+        <v>49.29999923706055</v>
+      </c>
+      <c r="F2039" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G2039" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2039" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2039" t="n">
+        <v>26</v>
+      </c>
+      <c r="J2039" t="n">
+        <v>9</v>
+      </c>
+      <c r="K2039" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2039" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2039" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2039" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2039" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2039" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2039" t="inlineStr"/>
+    </row>
+    <row r="2040">
+      <c r="A2040" s="2" t="n">
+        <v>45743.15625</v>
+      </c>
+      <c r="B2040" t="n">
+        <v>49.70000076293945</v>
+      </c>
+      <c r="C2040" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="D2040" t="n">
+        <v>49.40000152587891</v>
+      </c>
+      <c r="E2040" t="n">
+        <v>49.40000152587891</v>
+      </c>
+      <c r="F2040" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2040" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2040" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2040" t="n">
+        <v>27</v>
+      </c>
+      <c r="J2040" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2040" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2040" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2040" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2040" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2040" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2040" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2040" t="inlineStr"/>
+    </row>
+    <row r="2041">
+      <c r="A2041" s="2" t="n">
+        <v>45743.19791666666</v>
+      </c>
+      <c r="B2041" t="n">
+        <v>49.65000152587891</v>
+      </c>
+      <c r="C2041" t="n">
+        <v>49.65000152587891</v>
+      </c>
+      <c r="D2041" t="n">
+        <v>49.65000152587891</v>
+      </c>
+      <c r="E2041" t="n">
+        <v>49.65000152587891</v>
+      </c>
+      <c r="F2041" t="n">
+        <v>27500</v>
+      </c>
+      <c r="G2041" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2041" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2041" t="n">
+        <v>27</v>
+      </c>
+      <c r="J2041" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2041" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2041" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2041" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2041" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2041" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2041" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2041" t="inlineStr"/>
+    </row>
+    <row r="2042">
+      <c r="A2042" s="2" t="n">
+        <v>45743.23958333334</v>
+      </c>
+      <c r="B2042" t="n">
+        <v>49.65000152587891</v>
+      </c>
+      <c r="C2042" t="n">
+        <v>50.70000076293945</v>
+      </c>
+      <c r="D2042" t="n">
+        <v>49.65000152587891</v>
+      </c>
+      <c r="E2042" t="n">
+        <v>50.70000076293945</v>
+      </c>
+      <c r="F2042" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G2042" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2042" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2042" t="n">
+        <v>27</v>
+      </c>
+      <c r="J2042" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2042" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2042" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2042" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2042" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2042" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2042" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2042" t="inlineStr"/>
+    </row>
+    <row r="2043">
+      <c r="A2043" s="2" t="n">
+        <v>45743.28125</v>
+      </c>
+      <c r="B2043" t="n">
+        <v>49.65000152587891</v>
+      </c>
+      <c r="C2043" t="n">
+        <v>49.65000152587891</v>
+      </c>
+      <c r="D2043" t="n">
+        <v>49.65000152587891</v>
+      </c>
+      <c r="E2043" t="n">
+        <v>49.65000152587891</v>
+      </c>
+      <c r="F2043" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G2043" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2043" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2043" t="n">
+        <v>27</v>
+      </c>
+      <c r="J2043" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2043" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2043" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2043" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2043" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2043" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2043" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2043" t="inlineStr"/>
+    </row>
+    <row r="2044">
+      <c r="A2044" s="2" t="n">
+        <v>45743.32291666666</v>
+      </c>
+      <c r="B2044" t="n">
+        <v>48.15000152587891</v>
+      </c>
+      <c r="C2044" t="n">
+        <v>48.95000076293945</v>
+      </c>
+      <c r="D2044" t="n">
+        <v>48.09999847412109</v>
+      </c>
+      <c r="E2044" t="n">
+        <v>48.95000076293945</v>
+      </c>
+      <c r="F2044" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G2044" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2044" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2044" t="n">
+        <v>27</v>
+      </c>
+      <c r="J2044" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2044" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2044" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2044" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2044" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2044" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2044" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2044" t="inlineStr"/>
+    </row>
+    <row r="2045">
+      <c r="A2045" s="2" t="n">
+        <v>45743.36458333334</v>
+      </c>
+      <c r="B2045" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C2045" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D2045" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E2045" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F2045" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2045" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2045" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2045" t="n">
+        <v>27</v>
+      </c>
+      <c r="J2045" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2045" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2045" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2045" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2045" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2045" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2045" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2045" t="inlineStr"/>
+    </row>
+    <row r="2046">
+      <c r="A2046" s="2" t="n">
+        <v>45744.23958333334</v>
+      </c>
+      <c r="B2046" t="n">
+        <v>48.90000152587891</v>
+      </c>
+      <c r="C2046" t="n">
+        <v>50.25</v>
+      </c>
+      <c r="D2046" t="n">
+        <v>48.90000152587891</v>
+      </c>
+      <c r="E2046" t="n">
+        <v>50.25</v>
+      </c>
+      <c r="F2046" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G2046" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2046" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2046" t="n">
+        <v>28</v>
+      </c>
+      <c r="J2046" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2046" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2046" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2046" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2046" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2046" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2046" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2046" t="inlineStr"/>
+    </row>
+    <row r="2047">
+      <c r="A2047" s="2" t="n">
+        <v>45744.32291666666</v>
+      </c>
+      <c r="B2047" t="n">
+        <v>48.90000152587891</v>
+      </c>
+      <c r="C2047" t="n">
+        <v>48.90000152587891</v>
+      </c>
+      <c r="D2047" t="n">
+        <v>48.59999847412109</v>
+      </c>
+      <c r="E2047" t="n">
+        <v>48.59999847412109</v>
+      </c>
+      <c r="F2047" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2047" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2047" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2047" t="n">
+        <v>28</v>
+      </c>
+      <c r="J2047" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2047" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2047" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2047" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2047" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2047" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2047" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2047" t="inlineStr"/>
+    </row>
+    <row r="2048">
+      <c r="A2048" s="2" t="n">
+        <v>45744.36458333334</v>
+      </c>
+      <c r="B2048" t="n">
+        <v>48.54999923706055</v>
+      </c>
+      <c r="C2048" t="n">
+        <v>48.54999923706055</v>
+      </c>
+      <c r="D2048" t="n">
+        <v>48.54999923706055</v>
+      </c>
+      <c r="E2048" t="n">
+        <v>48.54999923706055</v>
+      </c>
+      <c r="F2048" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G2048" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2048" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2048" t="n">
+        <v>28</v>
+      </c>
+      <c r="J2048" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2048" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2048" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2048" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2048" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2048" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2048" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2048" t="inlineStr"/>
+    </row>
+    <row r="2049">
+      <c r="A2049" s="2" t="n">
+        <v>45744.40625</v>
+      </c>
+      <c r="B2049" t="n">
+        <v>46.34999847412109</v>
+      </c>
+      <c r="C2049" t="n">
+        <v>46.34999847412109</v>
+      </c>
+      <c r="D2049" t="n">
+        <v>46.34999847412109</v>
+      </c>
+      <c r="E2049" t="n">
+        <v>46.34999847412109</v>
+      </c>
+      <c r="F2049" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G2049" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2049" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2049" t="n">
+        <v>28</v>
+      </c>
+      <c r="J2049" t="n">
+        <v>9</v>
+      </c>
+      <c r="K2049" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2049" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2049" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2049" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2049" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2049" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2049" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
